--- a/biology/Zoologie/Agama_lionotus/Agama_lionotus.xlsx
+++ b/biology/Zoologie/Agama_lionotus/Agama_lionotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agame des colons
-Agama lionotus, l'agame des colons[1], est une espèce de sauriens de la famille des Agamidae[2].
+Agama lionotus, l'agame des colons, est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, en  Ouganda, au Kenya et en Éthiopie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, en  Ouganda, au Kenya et en Éthiopie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 mars 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 mars 2012) :
 Agama lionotus dodomae Loveridge, 1923
 Agama lionotus elgonis Lönnberg, 1922
 Agama lionotus lionotus Boulenger, 1896
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1896 : Second Report on the Reptiles and Batrachians collected by Dr. A. Donaldson Smith during his Expedition to Lake Rudolf. Proceedings of the Zoological Society of London, vol. 1896, p. 212-217 (texte intégral).
 Lönnberg, 1922 : Sammlungen der schwedischen Elgon-Expedition im Jahre 1920. Arkiv för Zoologi, vol. 14, no 12, p. 1-8 (texte intégral).
